--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kapper/Google Drive/AAU/MSc 2016-17/R/shinyampvis/data/nymidas/minimal example data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaldhat/Google Drive/AAU/MSc 2016-17/R/shinyampvis/data/nymidas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1680" windowWidth="26960" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="13760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,14 +28,269 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="169">
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Bjergmarken</t>
+  </si>
+  <si>
+    <t>16SAMP-4590</t>
+  </si>
+  <si>
+    <t>16SAMP-3912</t>
+  </si>
+  <si>
+    <t>16SAMP-3933</t>
+  </si>
+  <si>
+    <t>16SAMP-3945</t>
+  </si>
+  <si>
+    <t>Boeslum</t>
+  </si>
+  <si>
+    <t>16SAMP-3903</t>
+  </si>
+  <si>
+    <t>16SAMP-3925</t>
+  </si>
+  <si>
+    <t>16SAMP-3958</t>
+  </si>
+  <si>
+    <t>16SAMP-3965</t>
+  </si>
+  <si>
+    <t>CP Kelco</t>
+  </si>
+  <si>
+    <t>16SAMP-3922</t>
+  </si>
+  <si>
+    <t>16SAMP-3943</t>
+  </si>
+  <si>
+    <t>16SAMP-3955</t>
+  </si>
+  <si>
+    <t>16SAMP-3896</t>
+  </si>
+  <si>
+    <t>16SAMP-4595</t>
+  </si>
+  <si>
+    <t>16SAMP-3937</t>
+  </si>
+  <si>
+    <t>16SAMP-3949</t>
+  </si>
+  <si>
+    <t>16SAMP-3897</t>
+  </si>
+  <si>
+    <t>16SAMP-3917</t>
+  </si>
+  <si>
+    <t>16SAMP-3938</t>
+  </si>
+  <si>
+    <t>16SAMP-3950</t>
+  </si>
+  <si>
+    <t>Esbjerg E</t>
+  </si>
+  <si>
+    <t>16SAMP-3894</t>
+  </si>
+  <si>
+    <t>16SAMP-3914</t>
+  </si>
+  <si>
+    <t>16SAMP-3935</t>
+  </si>
+  <si>
+    <t>16SAMP-3947</t>
+  </si>
+  <si>
+    <t>Esbjerg W</t>
+  </si>
+  <si>
+    <t>16SAMP-3895</t>
+  </si>
+  <si>
+    <t>16SAMP-3915</t>
+  </si>
+  <si>
+    <t>16SAMP-3936</t>
+  </si>
+  <si>
+    <t>16SAMP-3948</t>
+  </si>
+  <si>
+    <t>Fredericia</t>
+  </si>
+  <si>
+    <t>16SAMP-3910</t>
+  </si>
+  <si>
+    <t>16SAMP-3923</t>
+  </si>
+  <si>
+    <t>16SAMP-3944</t>
+  </si>
+  <si>
+    <t>16SAMP-4605</t>
+  </si>
+  <si>
+    <t>Haderslev</t>
+  </si>
+  <si>
+    <t>16SAMP-4594</t>
+  </si>
+  <si>
+    <t>16SAMP-3930</t>
+  </si>
+  <si>
+    <t>16SAMP-3962</t>
+  </si>
+  <si>
+    <t>Hirtshals</t>
+  </si>
+  <si>
+    <t>16SAMP-3911</t>
+  </si>
+  <si>
+    <t>16SAMP-4602</t>
+  </si>
+  <si>
+    <t>16SAMP-4606</t>
+  </si>
+  <si>
+    <t>16SAMP-3898</t>
+  </si>
+  <si>
+    <t>16SAMP-4596</t>
+  </si>
+  <si>
+    <t>16SAMP-3939</t>
+  </si>
+  <si>
+    <t>16SAMP-3951</t>
+  </si>
+  <si>
+    <t>Lundtofte</t>
+  </si>
+  <si>
+    <t>16SAMP-4592</t>
+  </si>
+  <si>
+    <t>16SAMP-4598</t>
+  </si>
+  <si>
+    <t>16SAMP-3957</t>
+  </si>
+  <si>
+    <t>Odense NE</t>
+  </si>
+  <si>
+    <t>16SAMP-3906</t>
+  </si>
+  <si>
+    <t>16SAMP-4600</t>
+  </si>
+  <si>
+    <t>16SAMP-3961</t>
+  </si>
+  <si>
+    <t>Odense NW</t>
+  </si>
+  <si>
+    <t>16SAMP-3904</t>
+  </si>
+  <si>
+    <t>16SAMP-4599</t>
+  </si>
+  <si>
+    <t>16SAMP-3959</t>
+  </si>
+  <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>16SAMP-3909</t>
+  </si>
+  <si>
+    <t>16SAMP-3931</t>
+  </si>
+  <si>
+    <t>16SAMP-3963</t>
+  </si>
+  <si>
+    <t>Ribe</t>
+  </si>
+  <si>
+    <t>16SAMP-3901</t>
+  </si>
+  <si>
+    <t>16SAMP-3921</t>
+  </si>
+  <si>
+    <t>16SAMP-3942</t>
+  </si>
+  <si>
+    <t>16SAMP-3954</t>
+  </si>
+  <si>
+    <t>16SAMP-4593</t>
+  </si>
+  <si>
+    <t>16SAMP-4601</t>
+  </si>
+  <si>
+    <t>Skive</t>
+  </si>
+  <si>
+    <t>16SAMP-3899</t>
+  </si>
+  <si>
+    <t>16SAMP-3919</t>
+  </si>
+  <si>
+    <t>16SAMP-4604</t>
+  </si>
+  <si>
+    <t>16SAMP-3952</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>16SAMP-3905</t>
+  </si>
+  <si>
+    <t>16SAMP-3927</t>
+  </si>
+  <si>
+    <t>16SAMP-3960</t>
+  </si>
+  <si>
+    <t>Aalborg E</t>
+  </si>
   <si>
     <t>16SAMP-3893</t>
   </si>
   <si>
-    <t>Aalborg E</t>
-  </si>
-  <si>
     <t>16SAMP-3913</t>
   </si>
   <si>
@@ -44,12 +300,12 @@
     <t>16SAMP-3946</t>
   </si>
   <si>
+    <t>Aalborg W</t>
+  </si>
+  <si>
     <t>16SAMP-4591</t>
   </si>
   <si>
-    <t>Aalborg W</t>
-  </si>
-  <si>
     <t>16SAMP-4597</t>
   </si>
   <si>
@@ -59,16 +315,226 @@
     <t>16SAMP-3953</t>
   </si>
   <si>
-    <t>SampleID</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>16SAMP-13280</t>
+  </si>
+  <si>
+    <t>16SAMP-13281</t>
+  </si>
+  <si>
+    <t>16SAMP-13282</t>
+  </si>
+  <si>
+    <t>16SAMP-13283</t>
+  </si>
+  <si>
+    <t>16SAMP-13284</t>
+  </si>
+  <si>
+    <t>16SAMP-13285</t>
+  </si>
+  <si>
+    <t>16SAMP-13286</t>
+  </si>
+  <si>
+    <t>16SAMP-13287</t>
+  </si>
+  <si>
+    <t>16SAMP-13288</t>
+  </si>
+  <si>
+    <t>16SAMP-13289</t>
+  </si>
+  <si>
+    <t>16SAMP-13290</t>
+  </si>
+  <si>
+    <t>16SAMP-13291</t>
+  </si>
+  <si>
+    <t>16SAMP-13292</t>
+  </si>
+  <si>
+    <t>16SAMP-13293</t>
+  </si>
+  <si>
+    <t>16SAMP-13294</t>
+  </si>
+  <si>
+    <t>Damhusaaen</t>
+  </si>
+  <si>
+    <t>16SAMP-13296</t>
+  </si>
+  <si>
+    <t>16SAMP-13297</t>
+  </si>
+  <si>
+    <t>16SAMP-13298</t>
+  </si>
+  <si>
+    <t>16SAMP-13299</t>
+  </si>
+  <si>
+    <t>16SAMP-10889</t>
+  </si>
+  <si>
+    <t>Mariagerfjord</t>
+  </si>
+  <si>
+    <t>16SAMP-10890</t>
+  </si>
+  <si>
+    <t>16SAMP-10891</t>
+  </si>
+  <si>
+    <t>16SAMP-10892</t>
+  </si>
+  <si>
+    <t>16SAMP-10893</t>
+  </si>
+  <si>
+    <t>16SAMP-10894</t>
+  </si>
+  <si>
+    <t>16SAMP-10895</t>
+  </si>
+  <si>
+    <t>16SAMP-10896</t>
+  </si>
+  <si>
+    <t>16SAMP-10897</t>
+  </si>
+  <si>
+    <t>16SAMP-10898</t>
+  </si>
+  <si>
+    <t>16SAMP-10899</t>
+  </si>
+  <si>
+    <t>16SAMP-10900</t>
+  </si>
+  <si>
+    <t>16SAMP-10907</t>
+  </si>
+  <si>
+    <t>16SAMP-10908</t>
+  </si>
+  <si>
+    <t>16SAMP-10909</t>
+  </si>
+  <si>
+    <t>16SAMP-10910</t>
+  </si>
+  <si>
+    <t>16SAMP-10911</t>
+  </si>
+  <si>
+    <t>16SAMP-10912</t>
+  </si>
+  <si>
+    <t>16SAMP-10913</t>
+  </si>
+  <si>
+    <t>16SAMP-10914</t>
+  </si>
+  <si>
+    <t>16SAMP-10915</t>
+  </si>
+  <si>
+    <t>16SAMP-10916</t>
+  </si>
+  <si>
+    <t>16SAMP-10917</t>
+  </si>
+  <si>
+    <t>16SAMP-10918</t>
+  </si>
+  <si>
+    <t>16SAMP-10919</t>
+  </si>
+  <si>
+    <t>16SAMP-10920</t>
+  </si>
+  <si>
+    <t>16SAMP-10921</t>
+  </si>
+  <si>
+    <t>16SAMP-10922</t>
+  </si>
+  <si>
+    <t>16SAMP-10923</t>
+  </si>
+  <si>
+    <t>16SAMP-10924</t>
+  </si>
+  <si>
+    <t>16SAMP-10925</t>
+  </si>
+  <si>
+    <t>16SAMP-10926</t>
+  </si>
+  <si>
+    <t>16SAMP-10927</t>
+  </si>
+  <si>
+    <t>16SAMP-10928</t>
+  </si>
+  <si>
+    <t>16SAMP-10929</t>
+  </si>
+  <si>
+    <t>16SAMP-10930</t>
+  </si>
+  <si>
+    <t>16SAMP-10931</t>
+  </si>
+  <si>
+    <t>16SAMP-10932</t>
+  </si>
+  <si>
+    <t>16SAMP-13295</t>
+  </si>
+  <si>
+    <t>16SAMP-11722</t>
+  </si>
+  <si>
+    <t>16SAMP-11723</t>
+  </si>
+  <si>
+    <t>16SAMP-11724</t>
+  </si>
+  <si>
+    <t>16SAMP-11725</t>
+  </si>
+  <si>
+    <t>16SAMP-11726</t>
+  </si>
+  <si>
+    <t>16SAMP-11727</t>
+  </si>
+  <si>
+    <t>16SAMP-11728</t>
+  </si>
+  <si>
+    <t>16SAMP-11729</t>
+  </si>
+  <si>
+    <t>16SAMP-11730</t>
+  </si>
+  <si>
+    <t>Egaa</t>
+  </si>
+  <si>
+    <t>Ejby Moelle</t>
+  </si>
+  <si>
+    <t>Hjoerring</t>
+  </si>
+  <si>
+    <t>Ringkoebing</t>
+  </si>
+  <si>
+    <t>Avedoere</t>
   </si>
 </sst>
 </file>
@@ -77,7 +543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,10 +578,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,39 +601,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -243,181 +712,207 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>41676</v>
+        <v>41673</v>
       </c>
       <c r="D2">
         <v>2014</v>
@@ -425,13 +920,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>41823</v>
+        <v>41778</v>
       </c>
       <c r="D3">
         <v>2014</v>
@@ -439,13 +934,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>41870</v>
+        <v>41869</v>
       </c>
       <c r="D4">
         <v>2014</v>
@@ -453,13 +948,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
-        <v>41956</v>
+        <v>41953</v>
       </c>
       <c r="D5">
         <v>2014</v>
@@ -467,13 +962,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>41674</v>
+        <v>41680</v>
       </c>
       <c r="D6">
         <v>2014</v>
@@ -481,13 +976,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>41764</v>
+        <v>41855</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -495,13 +990,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>41869</v>
+        <v>41954</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -509,19 +1004,1893 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41694</v>
+      </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41820</v>
+      </c>
+      <c r="D10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41981</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41674</v>
+      </c>
+      <c r="D13">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41855</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41869</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1">
+        <v>41673</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1">
+        <v>41821</v>
+      </c>
+      <c r="D18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41879</v>
+      </c>
+      <c r="D19">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1">
+        <v>41954</v>
+      </c>
+      <c r="D20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41674</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41773</v>
+      </c>
+      <c r="D22">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D23">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D24">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41674</v>
+      </c>
+      <c r="D25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41773</v>
+      </c>
+      <c r="D26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41954</v>
+      </c>
+      <c r="D28">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41673</v>
+      </c>
+      <c r="D29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41785</v>
+      </c>
+      <c r="D30">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D32">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D33">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41813</v>
+      </c>
+      <c r="D34">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41947</v>
+      </c>
+      <c r="D35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D36">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41792</v>
+      </c>
+      <c r="D37">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41947</v>
+      </c>
+      <c r="D38">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="1">
+        <v>41680</v>
+      </c>
+      <c r="D39">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="1">
+        <v>41792</v>
+      </c>
+      <c r="D40">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41869</v>
+      </c>
+      <c r="D41">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D42">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1">
+        <v>41680</v>
+      </c>
+      <c r="D43">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41813</v>
+      </c>
+      <c r="D44">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1">
+        <v>41947</v>
+      </c>
+      <c r="D45">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41673</v>
+      </c>
+      <c r="D46">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41857</v>
+      </c>
+      <c r="D47">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41954</v>
+      </c>
+      <c r="D48">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41673</v>
+      </c>
+      <c r="D49">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1">
+        <v>41857</v>
+      </c>
+      <c r="D50">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41954</v>
+      </c>
+      <c r="D51">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D52">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1">
+        <v>41815</v>
+      </c>
+      <c r="D53">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1">
+        <v>41946</v>
+      </c>
+      <c r="D54">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1">
+        <v>41673</v>
+      </c>
+      <c r="D55">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1">
+        <v>41785</v>
+      </c>
+      <c r="D56">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D57">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1">
+        <v>41953</v>
+      </c>
+      <c r="D58">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D59">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1">
+        <v>41815</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D61">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1">
+        <v>41800</v>
+      </c>
+      <c r="D62">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D63">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41954</v>
+      </c>
+      <c r="D64">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41681</v>
+      </c>
+      <c r="D65">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41800</v>
+      </c>
+      <c r="D66">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="1">
+        <v>41947</v>
+      </c>
+      <c r="D67">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1">
+        <v>41676</v>
+      </c>
+      <c r="D68">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="1">
+        <v>41823</v>
+      </c>
+      <c r="D69">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="1">
+        <v>41870</v>
+      </c>
+      <c r="D70">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41956</v>
+      </c>
+      <c r="D71">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1">
+        <v>41674</v>
+      </c>
+      <c r="D72">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="1">
+        <v>41764</v>
+      </c>
+      <c r="D73">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="1">
+        <v>41869</v>
+      </c>
+      <c r="D74">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="1">
+        <v>41955</v>
+      </c>
+      <c r="D75">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D76">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D77">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D78">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D79">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D80">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D81">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42058</v>
+      </c>
+      <c r="D82">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D83">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42044</v>
+      </c>
+      <c r="D84">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42044</v>
+      </c>
+      <c r="D85">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>41955</v>
-      </c>
-      <c r="D9">
-        <v>2014</v>
+      <c r="C86" s="1">
+        <v>42058</v>
+      </c>
+      <c r="D86">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D87">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D88">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D89">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D90">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D91">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D92">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1">
+        <v>42046</v>
+      </c>
+      <c r="D93">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D94">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42059</v>
+      </c>
+      <c r="D95">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>42129</v>
+      </c>
+      <c r="D96">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D97">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D98">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="1">
+        <v>42129</v>
+      </c>
+      <c r="D99">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42130</v>
+      </c>
+      <c r="D100">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D101">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D102">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D103">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42130</v>
+      </c>
+      <c r="D104">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D105">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42129</v>
+      </c>
+      <c r="D106">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42240</v>
+      </c>
+      <c r="D107">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="1">
+        <v>42242</v>
+      </c>
+      <c r="D108">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42241</v>
+      </c>
+      <c r="D109">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42247</v>
+      </c>
+      <c r="D110">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="1">
+        <v>42240</v>
+      </c>
+      <c r="D111">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1">
+        <v>42248</v>
+      </c>
+      <c r="D112">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D113">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42241</v>
+      </c>
+      <c r="D114">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42249</v>
+      </c>
+      <c r="D115">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="1">
+        <v>42240</v>
+      </c>
+      <c r="D116">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="1">
+        <v>42241</v>
+      </c>
+      <c r="D117">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="1">
+        <v>42247</v>
+      </c>
+      <c r="D118">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" s="1">
+        <v>42249</v>
+      </c>
+      <c r="D119">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="1">
+        <v>42247</v>
+      </c>
+      <c r="D120">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="1">
+        <v>42240</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="1">
+        <v>42240</v>
+      </c>
+      <c r="D122">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="1">
+        <v>42241</v>
+      </c>
+      <c r="D123">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1">
+        <v>42303</v>
+      </c>
+      <c r="D124">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D125">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D126">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="1">
+        <v>42305</v>
+      </c>
+      <c r="D127">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>164</v>
+      </c>
+      <c r="C128" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D128">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D129">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="1">
+        <v>42296</v>
+      </c>
+      <c r="D130">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D131">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D132">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="1">
+        <v>42058</v>
+      </c>
+      <c r="D133">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="1">
+        <v>42130</v>
+      </c>
+      <c r="D134">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D135">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1">
+        <v>42268</v>
+      </c>
+      <c r="D136">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="1">
+        <v>42261</v>
+      </c>
+      <c r="D137">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="1">
+        <v>42247</v>
+      </c>
+      <c r="D138">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1">
+        <v>42241</v>
+      </c>
+      <c r="D139">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" s="1">
+        <v>42304</v>
+      </c>
+      <c r="D140">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="1">
+        <v>42305</v>
+      </c>
+      <c r="D141">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="1">
+        <v>42303</v>
+      </c>
+      <c r="D142">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>